--- a/src/test/resources/Run_Manager.xlsx
+++ b/src/test/resources/Run_Manager.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-IntellijWorkspace\NHC\Sakani_1,2,4\Sakani\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D595E2FD-6412-40BF-90E8-9E6083D644B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D56BF-9294-4F6D-97DA-CB7B8807C8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="2880" windowWidth="18744" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Booking" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SuiteDetails!$A$1:$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SuiteDetails!$A$1:$M$43</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -1453,9 +1453,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1493,7 +1493,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1599,7 +1599,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1741,7 +1741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1752,11 +1752,11 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="X5" sqref="X5"/>
       <selection pane="topRight" activeCell="X5" sqref="X5"/>
       <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38:I39"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2819,7 +2819,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -3308,7 +3308,7 @@
         <v>18</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>308</v>
+        <v>182</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -3397,7 +3397,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1:D2 E1">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>

--- a/src/test/resources/Run_Manager.xlsx
+++ b/src/test/resources/Run_Manager.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-IntellijWorkspace\NHC\Sakani_Combined\Sakani\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E718A84-0CFD-42B7-9182-3D7B01E62555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE91CE4E-C6D9-4970-BFB8-B5DCDBA1C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="514">
   <si>
     <t>P_Key</t>
   </si>
@@ -1606,9 +1606,6 @@
   </si>
   <si>
     <t>PartnersRegistration~Company account activation delegate</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2687,10 +2684,10 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,7 +4411,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>514</v>
+        <v>157</v>
       </c>
       <c r="J47" s="22">
         <v>1</v>
